--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1731097.274610691</v>
+        <v>-1736385.390105463</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13952583.0171251</v>
+        <v>13950813.07895384</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -668,16 +668,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>15.10619994650285</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>99.02455156763537</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>36.2012928177129</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.236264487174494</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -817,22 +817,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6236123840452</v>
+        <v>46.59510935725324</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.8197205432557</v>
+        <v>250.5238055880361</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -1026,10 +1026,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>43.66266530373186</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950183072</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>88.48548811540418</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>72.30123682227983</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>169.2554707210977</v>
+        <v>87.35925972696329</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>161.0077893067914</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1370,19 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>277.5000611371929</v>
       </c>
       <c r="F11" t="n">
-        <v>308.0979689242159</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>43.58458219357422</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>8.81957168110452</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>254.0183135339699</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>106.1739913681365</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442488</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338906</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>97.63024838550591</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>140.7698617749432</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,7 +2141,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658118</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838905</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828918</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043175</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459991</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643963</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931874</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908601</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147815</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805019</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922212</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367804</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920536</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.271475716895</v>
+        <v>1324.063579774251</v>
       </c>
       <c r="C2" t="n">
-        <v>872.0959742198255</v>
+        <v>930.8880782771816</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198255</v>
+        <v>930.8880782771816</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>528.3045533937261</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634779</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>1549.897808704474</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704474</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596802</v>
+        <v>1847.448174004346</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="V2" t="n">
-        <v>2036.765256460004</v>
+        <v>1695.062614805964</v>
       </c>
       <c r="W2" t="n">
-        <v>1665.766221428292</v>
+        <v>1324.063579774251</v>
       </c>
       <c r="X2" t="n">
-        <v>1665.766221428292</v>
+        <v>1324.063579774251</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.766221428292</v>
+        <v>1324.063579774251</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>707.9891204222797</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>557.3348899823719</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>427.2459226038523</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>290.79943171474</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>166.3676255978718</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653883</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875481</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1872.013835936255</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>536.6226020616494</v>
+        <v>399.7609390221497</v>
       </c>
       <c r="C4" t="n">
-        <v>522.8613774313008</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="D4" t="n">
-        <v>367.2282643338155</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E4" t="n">
-        <v>367.2282643338155</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338155</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>584.968957713451</v>
       </c>
       <c r="Y4" t="n">
-        <v>721.8306207529507</v>
+        <v>584.968957713451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930.4757375204661</v>
+        <v>456.6551341546188</v>
       </c>
       <c r="C5" t="n">
-        <v>930.4757375204661</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4757375204661</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>50.62559822793124</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827818</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.74991746528</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297167</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.282367297167</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.282367297167</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="W5" t="n">
-        <v>1580.283332265455</v>
+        <v>1499.656834011783</v>
       </c>
       <c r="X5" t="n">
-        <v>1580.283332265455</v>
+        <v>1110.20422894484</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.970483231863</v>
+        <v>857.1498798660157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>1872.210915287855</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1662.147771966497</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1439.607770337564</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1209.49052447085</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1020.183446820862</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>840.8692298963695</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.6878063607576</v>
+        <v>114.5347991020757</v>
       </c>
       <c r="C7" t="n">
-        <v>367.3085254361069</v>
+        <v>114.5347991020757</v>
       </c>
       <c r="D7" t="n">
-        <v>367.3085254361069</v>
+        <v>114.5347991020757</v>
       </c>
       <c r="E7" t="n">
-        <v>211.7497132953095</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953095</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>456.6878063607576</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V7" t="n">
-        <v>456.6878063607576</v>
+        <v>114.5347991020757</v>
       </c>
       <c r="W7" t="n">
-        <v>456.6878063607576</v>
+        <v>114.5347991020757</v>
       </c>
       <c r="X7" t="n">
-        <v>456.6878063607576</v>
+        <v>114.5347991020757</v>
       </c>
       <c r="Y7" t="n">
-        <v>456.6878063607576</v>
+        <v>114.5347991020757</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1190.588311973738</v>
+        <v>600.8019744073591</v>
       </c>
       <c r="C8" t="n">
-        <v>797.412810476668</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D8" t="n">
-        <v>797.412810476668</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.154988922119</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>1762.048179625637</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="W8" t="n">
-        <v>1762.048179625637</v>
+        <v>1486.029105690037</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.083057685134</v>
+        <v>1397.787429198155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.083057685134</v>
+        <v>1001.296720118756</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4887,13 @@
         <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>554.6660347926879</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.16403979929</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.1977170293682</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>360.1977170293682</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>583.3097782127248</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>583.3097782127248</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>583.3097782127248</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>583.3097782127248</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>583.3097782127248</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.1977170293682</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.414556352054</v>
+        <v>1229.733075037215</v>
       </c>
       <c r="C11" t="n">
-        <v>1611.414556352054</v>
+        <v>908.3538486863396</v>
       </c>
       <c r="D11" t="n">
-        <v>1297.769702714916</v>
+        <v>594.7089950492013</v>
       </c>
       <c r="E11" t="n">
-        <v>966.982452977654</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572339</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838006</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>1883.125979535623</v>
       </c>
       <c r="Y11" t="n">
-        <v>1940.113026917257</v>
+        <v>1558.431545602418</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420618</v>
+        <v>286.4385749083273</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542449</v>
+        <v>286.4385749083273</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029534</v>
+        <v>202.6017369570359</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083498</v>
+        <v>202.6017369570359</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5227,22 +5227,22 @@
         <v>1496.732641814508</v>
       </c>
       <c r="T13" t="n">
-        <v>1496.732641814508</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U13" t="n">
-        <v>1487.823983550766</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>1293.640913517784</v>
+        <v>924.9842784840486</v>
       </c>
       <c r="W13" t="n">
-        <v>1082.106786595155</v>
+        <v>713.4501515614201</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8227395243321</v>
+        <v>551.166104490597</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871693</v>
+        <v>399.8503184534343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.124554843851</v>
+        <v>1229.733075037215</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.745328492976</v>
+        <v>1229.733075037215</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.100474855837</v>
+        <v>916.0882214000771</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3132251185754</v>
+        <v>916.0882214000771</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>570.9900580762488</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2903.99264936561</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2633.682115215322</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2334.479355329804</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2016.823025409054</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.823025409054</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>593.7970597253336</v>
+        <v>571.2583719907701</v>
       </c>
       <c r="C16" t="n">
-        <v>495.3882169375166</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="D16" t="n">
-        <v>411.5513789862252</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916216</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922021</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U16" t="n">
-        <v>1214.991706411409</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.808636378427</v>
+        <v>924.9842784840484</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.808636378427</v>
+        <v>713.4501515614199</v>
       </c>
       <c r="X16" t="n">
-        <v>858.5245893076037</v>
+        <v>571.2583719907701</v>
       </c>
       <c r="Y16" t="n">
-        <v>707.2088032704411</v>
+        <v>571.2583719907701</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
         <v>827.8895422975453</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5604,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5735,28 +5735,28 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133159</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>804.578023344525</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386233</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5981,7 +5981,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750519</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133159</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6312,7 +6312,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230632</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786173</v>
+        <v>1690.805456896589</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423635</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043033</v>
+        <v>2770.308462001362</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174555</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1500.624429827983</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1500.624429827983</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996514</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918676</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>391.0095793541359</v>
+        <v>536.8220577360523</v>
       </c>
       <c r="M34" t="n">
-        <v>682.57425041947</v>
+        <v>723.1136360743163</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377098</v>
+        <v>906.3032701055256</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O37" t="n">
-        <v>969.324157721467</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,7 +7442,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7816,40 +7816,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655146</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,7 +7985,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>664.3207371077272</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
@@ -7994,10 +7994,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.3157541223163</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>416.7338824638938</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837495</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>297.8880658390585</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,16 +8219,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363579</v>
       </c>
       <c r="M5" t="n">
-        <v>223.9579342020146</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8304,10 +8304,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3219646728126</v>
+        <v>162.9122342875693</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,16 +8535,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>279.5693555729968</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8778,7 +8778,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10592,7 +10592,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>49.97931610269603</v>
       </c>
       <c r="F11" t="n">
-        <v>33.54921276637415</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.7701071136279</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.0897808508505</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6865197646816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>83.93450202817502</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>75.94289850687902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>113.8758430602802</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>19.89134482517159</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1222801.480110939</v>
+        <v>1221899.158690298</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1222801.480110939</v>
+        <v>1221899.158690298</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1090482.433577513</v>
+        <v>1090482.433577514</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>72132.87123734276</v>
+      </c>
+      <c r="C2" t="n">
+        <v>72132.87123734274</v>
+      </c>
+      <c r="D2" t="n">
         <v>72132.87123734273</v>
       </c>
-      <c r="C2" t="n">
-        <v>72132.87123734273</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72132.87123734271</v>
-      </c>
       <c r="E2" t="n">
-        <v>63743.60936976023</v>
+        <v>63743.60936976026</v>
       </c>
       <c r="F2" t="n">
-        <v>63743.60936976024</v>
+        <v>63743.60936976025</v>
       </c>
       <c r="G2" t="n">
         <v>72132.87123734271</v>
       </c>
       <c r="H2" t="n">
-        <v>72132.87123734268</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="I2" t="n">
-        <v>72132.87123734268</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="J2" t="n">
-        <v>72132.87123734255</v>
+        <v>72132.87123734254</v>
       </c>
       <c r="K2" t="n">
-        <v>72132.87123734258</v>
+        <v>72132.8712373426</v>
       </c>
       <c r="L2" t="n">
-        <v>72132.87123734268</v>
+        <v>72132.87123734277</v>
       </c>
       <c r="M2" t="n">
-        <v>72132.87123734268</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="N2" t="n">
+        <v>72132.87123734273</v>
+      </c>
+      <c r="O2" t="n">
         <v>72132.8712373427</v>
       </c>
-      <c r="O2" t="n">
-        <v>72132.87123734273</v>
-      </c>
       <c r="P2" t="n">
-        <v>72132.87123734271</v>
+        <v>72132.8712373427</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>200285.8640399294</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62456.2417753967</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43252.52447081113</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>206802.1491945027</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57301.47179728543</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42200.82945962303</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>27767.69404277113</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26427,7 +26427,7 @@
         <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002077</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-376571.5861136218</v>
+        <v>-372520.9141062072</v>
       </c>
       <c r="C6" t="n">
-        <v>-194366.6378217658</v>
+        <v>-198662.257072152</v>
       </c>
       <c r="D6" t="n">
-        <v>-200958.6991614881</v>
+        <v>-208694.9883848797</v>
       </c>
       <c r="E6" t="n">
-        <v>-214362.3463043326</v>
+        <v>-214572.0778510222</v>
       </c>
       <c r="F6" t="n">
-        <v>-102239.784830288</v>
+        <v>-102449.5163769777</v>
       </c>
       <c r="G6" t="n">
         <v>-194018.5146066489</v>
@@ -26543,25 +26543,25 @@
         <v>-146593.189069967</v>
       </c>
       <c r="J6" t="n">
-        <v>-359635.1066672527</v>
+        <v>-353118.8215126795</v>
       </c>
       <c r="K6" t="n">
         <v>-152832.95747275</v>
       </c>
       <c r="L6" t="n">
-        <v>-208015.546407371</v>
+        <v>-212064.3836178432</v>
       </c>
       <c r="M6" t="n">
-        <v>-188794.01852959</v>
+        <v>-189845.713540778</v>
       </c>
       <c r="N6" t="n">
         <v>-146593.189069967</v>
       </c>
       <c r="O6" t="n">
-        <v>-174360.8831127381</v>
+        <v>-174360.8831127382</v>
       </c>
       <c r="P6" t="n">
-        <v>-146593.1890699669</v>
+        <v>-146593.189069967</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34.70961755346403</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924587</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287445</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>34.70961755346394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660679</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551367</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>397.6192941388192</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>239.6611896358814</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>82.6579269311413</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.177742386314</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>154.8794543706255</v>
+        <v>121.9079573974174</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.7060814453492</v>
+        <v>142.0019964005688</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>131.5513083793487</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863139</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>80.01757863926649</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>81.70198719710967</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>216.302608295176</v>
+        <v>298.1988192893104</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>72.35407200665685</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,16 +28758,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>128.2979821082774</v>
+        <v>28.01250026485258</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L25" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>86.65052755599589</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.2729119656683</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>81.1080814089338</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254421</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031462</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30411,14 +30411,14 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.636002634528381</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30888,16 +30888,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.63600263452949</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,7 +34705,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>514.59568551</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>230.0143068813911</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>326.6735356069756</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>205.2005069501696</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,16 +34939,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586624</v>
       </c>
       <c r="M5" t="n">
-        <v>74.23288260428735</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35024,10 +35024,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>58.94985181864591</v>
+        <v>77.54012143340266</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>189.5090087160786</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>316.4712935610694</v>
+        <v>216.1858117176445</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L25" t="n">
-        <v>294.0834769302974</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039242</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>438.3550650625836</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974479</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>632.6241420600253</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.820902645857</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273748</v>
+        <v>75.16693519537662</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791168</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.754502987503</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>197.8808906882728</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529496</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873203</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38184,16 +38184,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094883</v>
+        <v>190.6760370094871</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
